--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/nuclei_group_regressions.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/nuclei_group_regressions.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.044</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.0432, 0.129]</t>
+          <t>[-0.044, 0.129]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.0878</t>
+          <t>-0.085</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.144</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.166, -0.00941]</t>
+          <t>[-0.164, -0.005]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -535,27 +535,27 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL 1+</t>
+          <t>PRL_LEVEL[T.1]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.0509</t>
+          <t>-0.013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.807</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0704</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.189, 0.0871]</t>
+          <t>[-0.166, 0.129]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -567,27 +567,27 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PRL 3+</t>
+          <t>PRL_LEVEL[T.2]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.1732</t>
+          <t>-0.114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.257</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.389, 0.0428]</t>
+          <t>[-0.384, 0.049]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -655,22 +655,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.0739</t>
+          <t>-0.073</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.00056</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.114, -0.034]</t>
+          <t>[-0.113, -0.034]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -687,91 +687,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.0206</t>
+          <t>-0.022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.0594, 0.0182]</t>
+          <t>[-0.062, 0.017]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL 1+</t>
+          <t>PRL_LEVEL[T.1]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.0411, 0.0969]</t>
+          <t>[-0.046, 0.099]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PRL 3+</t>
+          <t>PRL_LEVEL[T.2]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0567</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0625</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.0659, 0.179]</t>
+          <t>[-0.068, 0.180]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.88</t>
         </is>
       </c>
     </row>
@@ -834,27 +834,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.0459</t>
+          <t>-0.046</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.013</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.0809, -0.0109]</t>
+          <t>[-0.081, -0.011]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.90</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.0709</t>
+          <t>-0.068</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.00096</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.111, -0.0311]</t>
+          <t>[-0.108, -0.028]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -893,64 +893,64 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL 1+</t>
+          <t>PRL_LEVEL[T.1]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.0629</t>
+          <t>-0.017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.491</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0336</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.129, 0.00288]</t>
+          <t>[-0.095, 0.046]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.90</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PRL 3+</t>
+          <t>PRL_LEVEL[T.2]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.1829</t>
+          <t>-0.123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.00057</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0518</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.284, -0.0814]</t>
+          <t>[-0.283, -0.078]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.90</t>
         </is>
       </c>
     </row>
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.1309</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.6e-11</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.0925, 0.169]</t>
+          <t>[0.093, 0.171]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1045,22 +1045,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0864</t>
+          <t>0.083</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.00073</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.0363, 0.137]</t>
+          <t>[0.032, 0.133]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1072,27 +1072,27 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PRL 1+</t>
+          <t>PRL_LEVEL[T.1]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>-0.014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.635</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.0642, 0.0933]</t>
+          <t>[-0.102, 0.062]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1104,27 +1104,27 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PRL 3+</t>
+          <t>PRL_LEVEL[T.2]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.1111</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.154</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0673</t>
+          <t>0.068</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.0209, 0.243]</t>
+          <t>[-0.026, 0.241]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">

--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/nuclei_group_regressions.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/nuclei_group_regressions.xlsx
@@ -503,27 +503,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.085</t>
+          <t>-0.142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.144</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.164, -0.005]</t>
+          <t>[-0.231, -0.053]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -682,27 +682,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.022</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.858</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.062, 0.017]</t>
+          <t>[-0.045, 0.054]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.633</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.633</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -861,17 +861,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.068</t>
+          <t>-0.092</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.108, -0.028]</t>
+          <t>[-0.130, -0.053]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1040,27 +1040,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t2lv_log</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.032, 0.133]</t>
+          <t>[0.038, 0.136]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
